--- a/Data Sheet/Résultats Banc de Test.xlsx
+++ b/Data Sheet/Résultats Banc de Test.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\4A\CC_Seby_2021\Data Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4D9D64A577C15A4A5418DAD0DA546C5ADEDD8B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D60D14DA-2028-46C2-A8AC-FE0614A61A0C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="12B" sheetId="1" r:id="rId1"/>
+    <sheet name="HB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Épaisseur du papier (m)</t>
   </si>
@@ -45,10 +37,16 @@
     <t>Déformation</t>
   </si>
   <si>
-    <t>Résistance B</t>
+    <t>Résistance B (Mohms)</t>
   </si>
   <si>
-    <t>∆Résistance B</t>
+    <t>∆Résistance B (Mohms)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -104,6 +102,2254 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Caractéristique</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de déformation du crayon 12B</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.542602476703835E-3"/>
+                  <c:y val="0.26866722344907062"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12B'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6225165562913899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12B'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0368421052631578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97368421052631582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1157894736842104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92105263157894735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0368421052631578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9631578947368421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-697B-40C2-A428-EBB2FEF04C2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1787097103"/>
+        <c:axId val="1786255343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1787097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786255343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1786255343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>∆R/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787097103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Caractéristique</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de déformation du crayon HB</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5712624157274459E-2"/>
+                  <c:y val="0.28493715913775225"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HB!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6225165562913899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HB!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.191747572815534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95388349514563098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2742718446601942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87378640776699024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1067961165048543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95873786407766981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0885-4131-BA3C-4EAB8A5E157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1787097103"/>
+        <c:axId val="1786255343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1787097103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786255343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1786255343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>∆R/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787097103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10276937-A48B-44C6-BBB8-F3CEC8FF09B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971549</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D1C2ED-AFEF-4460-BC08-BD9808F87E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,8 +2626,223 @@
     <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>0.3/1000</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1.79E+307</f>
+        <v>1.7900000000000001E+307</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <f>$D$2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>$A$2/(2*B3+$A$2)</f>
+        <v>5.9642147117296212E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/$D$2</f>
+        <v>1.0368421052631578</v>
+      </c>
+      <c r="F3" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>-$A$2/(2*B4+$A$2)</f>
+        <v>-5.9642147117296212E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E25" si="0">D4/$D$2</f>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C4:C8" si="1">$A$2/(2*B5+$A$2)</f>
+        <v>1.4778325123152707E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1157894736842104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="1">
+        <f>-$A$2/(2*B6+$A$2)</f>
+        <v>-1.4778325123152707E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f>3.5/2/100</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4985835694050965E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0473684210526315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>3.5/2/100</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <f>-$A$2/(2*B8+$A$2)</f>
+        <v>-8.4985835694050965E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>4.5/2/100</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>$A$2/(2*B9+$A$2)</f>
+        <v>6.6225165562913899E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0368421052631578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>4.5/2/100</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C9:C10" si="2">-$A$2/(2*B10+$A$2)</f>
+        <v>-6.6225165562913899E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9631578947368421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E059FFB-2166-4A65-BDCB-8CECF040B828}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -411,18 +2872,121 @@
         <f>1.79E+307</f>
         <v>1.7900000000000001E+307</v>
       </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41.2</v>
+      </c>
       <c r="E2" s="1">
-        <f>$D$2</f>
-        <v>0</v>
+        <f>$D$2/D2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="e">
+      <c r="B3" s="1">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>$A$2/(2*B3+$A$2)</f>
+        <v>5.9642147117296212E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="E3" s="1">
         <f>D3/$D$2</f>
-        <v>#DIV/0!</v>
+        <v>1.191747572815534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>-$A$2/(2*B4+$A$2)</f>
+        <v>-5.9642147117296212E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="0">D4/$D$2</f>
+        <v>0.95388349514563098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C7" si="1">$A$2/(2*B5+$A$2)</f>
+        <v>1.4778325123152707E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2742718446601942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="1">
+        <f>-$A$2/(2*B6+$A$2)</f>
+        <v>-1.4778325123152707E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87378640776699024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>4.5/2/100</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>$A$2/(2*B9+$A$2)</f>
+        <v>6.6225165562913899E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1067961165048543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>4.5/2/100</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10" si="2">-$A$2/(2*B10+$A$2)</f>
+        <v>-6.6225165562913899E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95873786407766981</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Sheet/Résultats Banc de Test.xlsx
+++ b/Data Sheet/Résultats Banc de Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\4A\CC_Seby_2021\Data Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{895447D7-A07D-4FAB-8678-62D4A6D5A695}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Épaisseur du papier (m)</t>
   </si>
@@ -40,20 +49,39 @@
     <t>Résistance B (Mohms)</t>
   </si>
   <si>
-    <t>∆Résistance B (Mohms)</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Résistance B/R0</t>
+  </si>
+  <si>
+    <t>∆R (Mohms)</t>
+  </si>
+  <si>
+    <t>∆R/R0</t>
+  </si>
+  <si>
+    <t>Résistance HB/R0</t>
+  </si>
+  <si>
+    <t>Résistance HB (Mohms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,17 +107,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,7 +556,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>∆R/R0</a:t>
+                  <a:t>R/R0</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -644,6 +677,525 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Caractéristique de déformation du crayon 12B</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3240435348934314E-3"/>
+                  <c:y val="0.32427691068689785"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12B'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6225165562913899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12B'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6842105263157857E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6315789473684209E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11578947368421048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7368421052631504E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.8947368421052627E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6842105263157857E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6842105263157857E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27C4-4767-98C4-EFED1ED77203}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668609888"/>
+        <c:axId val="668624448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668609888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668624448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668624448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>∆R/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668609888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -800,10 +1352,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>HB!$C$2:$C$10</c:f>
+              <c:f>HB!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -819,10 +1371,10 @@
                 <c:pt idx="4">
                   <c:v>-1.4778325123152707E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>6.6225165562913899E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="6">
                   <c:v>-6.6225165562913899E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,10 +1382,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>HB!$E$2:$E$10</c:f>
+              <c:f>HB!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -849,10 +1401,10 @@
                 <c:pt idx="4">
                   <c:v>0.87378640776699024</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>1.1067961165048543</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="6">
                   <c:v>0.95873786407766981</c:v>
                 </c:pt>
               </c:numCache>
@@ -1036,7 +1588,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>∆R/R0</a:t>
+                  <a:t>R/R0</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1108,6 +1660,514 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1787097103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Caractéristique de déformation du crayon HB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0107619069106332E-2"/>
+                  <c:y val="0.23574224807643551"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HB!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.6225165562913899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HB!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19174757281553392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.6116504854369064E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27427184466019411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12621359223300976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10679611650485432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1262135922330162E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-451D-49F0-918F-EEF21343D752}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668552480"/>
+        <c:axId val="668575776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668552480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668575776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668575776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>∆R/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668552480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,6 +2296,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1753,6 +2893,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2301,6 +4473,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4722206-71CE-4586-A57A-75C2F81BD6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2344,6 +4552,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCFB42E-6D9D-4595-AE1A-B37F887F36BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2615,10 +4859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,7 +4872,9 @@
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,13 +4891,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,10 +4920,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>18.8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>19.5</v>
+        <f>D2-$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/$D$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2697,10 +4945,12 @@
         <v>1.0368421052631578</v>
       </c>
       <c r="F3" s="1">
-        <v>21.3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>21.6</v>
+        <f t="shared" ref="F3:F10" si="0">D3-$D$2</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G10" si="1">F3/$D$2</f>
+        <v>3.6842105263157857E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2716,8 +4966,16 @@
         <v>18.5</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E25" si="0">D4/$D$2</f>
+        <f t="shared" ref="E4:E10" si="2">D4/$D$2</f>
         <v>0.97368421052631582</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2726,15 +4984,23 @@
         <v>0.01</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C4:C8" si="1">$A$2/(2*B5+$A$2)</f>
+        <f t="shared" ref="C5:C7" si="3">$A$2/(2*B5+$A$2)</f>
         <v>1.4778325123152707E-2</v>
       </c>
       <c r="D5" s="1">
         <v>21.2</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1157894736842104</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1157894736842104</v>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11578947368421048</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,8 +5016,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.89473684210526316</v>
+        <v>-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.10526315789473684</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,15 +5034,23 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4985835694050965E-3</v>
       </c>
       <c r="D7" s="1">
         <v>19.899999999999999</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0473684210526315</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.0473684210526315</v>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7368421052631504E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,8 +5066,16 @@
         <v>17.5</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.92105263157894735</v>
+        <v>-1.5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,8 +5091,16 @@
         <v>19.7</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0368421052631578</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>1.0368421052631578</v>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6842105263157857E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,15 +5109,47 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C9:C10" si="2">-$A$2/(2*B10+$A$2)</f>
+        <f t="shared" ref="C10" si="4">-$A$2/(2*B10+$A$2)</f>
         <v>-6.6225165562913899E-3</v>
       </c>
       <c r="D10" s="1">
         <v>18.3</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9631578947368421</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.9631578947368421</v>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.6842105263157857E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
@@ -2830,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E059FFB-2166-4A65-BDCB-8CECF040B828}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,10 +5173,11 @@
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,13 +5188,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>0.3/1000</f>
         <v>2.9999999999999997E-4</v>
@@ -2882,8 +5219,16 @@
         <f>$D$2/D2</f>
         <v>1</v>
       </c>
+      <c r="F2" s="1">
+        <f>D2-$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/$D$2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
@@ -2899,8 +5244,16 @@
         <f>D3/$D$2</f>
         <v>1.191747572815534</v>
       </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">D3-$D$2</f>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G10" si="1">F3/$D$2</f>
+        <v>0.19174757281553392</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
@@ -2913,28 +5266,44 @@
         <v>39.299999999999997</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E10" si="0">D4/$D$2</f>
+        <f t="shared" ref="E4:E10" si="2">D4/$D$2</f>
         <v>0.95388349514563098</v>
       </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.9000000000000057</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.6116504854369064E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>1/100</f>
         <v>0.01</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="1">$A$2/(2*B5+$A$2)</f>
+        <f t="shared" ref="C5" si="3">$A$2/(2*B5+$A$2)</f>
         <v>1.4778325123152707E-2</v>
       </c>
       <c r="D5" s="1">
         <v>52.5</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2742718446601942</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2742718446601942</v>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27427184466019411</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>1/100</f>
         <v>0.01</v>
@@ -2947,42 +5316,66 @@
         <v>36</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87378640776699024</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.87378640776699024</v>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.12621359223300976</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <f>4.5/2/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="C9" s="1">
-        <f>$A$2/(2*B9+$A$2)</f>
+      <c r="C7" s="1">
+        <f>$A$2/(2*B7+$A$2)</f>
         <v>6.6225165562913899E-3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D7" s="1">
         <v>45.6</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="1">
+        <f>D7/$D$2</f>
         <v>1.1067961165048543</v>
       </c>
+      <c r="F7" s="1">
+        <f>D7-$D$2</f>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7/$D$2</f>
+        <v>0.10679611650485432</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <f>4.5/2/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10" si="2">-$A$2/(2*B10+$A$2)</f>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8" si="4">-$A$2/(2*B8+$A$2)</f>
         <v>-6.6225165562913899E-3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D8" s="1">
         <v>39.5</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
+      <c r="E8" s="1">
+        <f>D8/$D$2</f>
         <v>0.95873786407766981</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8-$D$2</f>
+        <v>-1.7000000000000028</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8/$D$2</f>
+        <v>-4.1262135922330162E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sheet/Résultats Banc de Test.xlsx
+++ b/Data Sheet/Résultats Banc de Test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{895447D7-A07D-4FAB-8678-62D4A6D5A695}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F8A1E10-9F39-4279-8B8B-07EB535609EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12B" sheetId="1" r:id="rId1"/>
     <sheet name="HB" sheetId="2" r:id="rId2"/>
+    <sheet name="Synthèse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Épaisseur du papier (m)</t>
   </si>
@@ -68,6 +69,12 @@
   </si>
   <si>
     <t>Résistance HB (Mohms)</t>
+  </si>
+  <si>
+    <t>∆R/R0 (2H)</t>
+  </si>
+  <si>
+    <t>∆R/R0 (HB)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -119,6 +126,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,545 +146,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Caractéristique</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> de déformation du crayon 12B</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.542602476703835E-3"/>
-                  <c:y val="0.26866722344907062"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'12B'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9642147117296212E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.9642147117296212E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4778325123152707E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.4778325123152707E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4985835694050965E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.4985835694050965E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6225165562913899E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6.6225165562913899E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'12B'!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0368421052631578</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97368421052631582</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1157894736842104</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0473684210526315</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92105263157894735</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0368421052631578</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9631578947368421</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-697B-40C2-A428-EBB2FEF04C2F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1787097103"/>
-        <c:axId val="1786255343"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1787097103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Déformation</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1786255343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1786255343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>R/R0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1787097103"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -787,13 +256,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.3240435348934314E-3"/>
-                  <c:y val="0.32427691068689785"/>
+                  <c:x val="7.8914236040684566E-2"/>
+                  <c:y val="8.5102209845507926E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -830,7 +300,7 @@
             <c:numRef>
               <c:f>'12B'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -992,7 +462,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1195,520 +665,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Caractéristique</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> de déformation du crayon HB</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.5712624157274459E-2"/>
-                  <c:y val="0.28493715913775225"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>HB!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9642147117296212E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.9642147117296212E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4778325123152707E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.4778325123152707E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6225165562913899E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6.6225165562913899E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>HB!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.191747572815534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95388349514563098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2742718446601942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87378640776699024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1067961165048543</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95873786407766981</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0885-4131-BA3C-4EAB8A5E157F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1787097103"/>
-        <c:axId val="1786255343"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1787097103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Déformation</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1786255343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1786255343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>R/R0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1787097103"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1819,13 +776,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.0107619069106332E-2"/>
-                  <c:y val="0.23574224807643551"/>
+                  <c:x val="5.4398775600620258E-2"/>
+                  <c:y val="0.12432481931066106"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1862,7 +820,7 @@
             <c:numRef>
               <c:f>HB!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2012,7 +970,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2216,6 +1174,681 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Caractéristiques de déformation des crayons 2H et HB </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7725554129522459E-2"/>
+                  <c:y val="-2.7980687838981722E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthèse!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6225165562913899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthèse!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19174757281553392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.6116504854369064E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27427184466019411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12621359223300976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10679611650485432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.1262135922330162E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD65-4F26-B6BB-8EAC4289938A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2H</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6257125348318239E-2"/>
+                  <c:y val="4.1945002761589439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Synthèse!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9642147117296212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4778325123152707E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4985835694050965E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.6225165562913899E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Synthèse!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6842105263157857E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6315789473684209E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11578947368421048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7368421052631504E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.8947368421052627E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6842105263157857E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6842105263157857E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DD65-4F26-B6BB-8EAC4289938A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="672098687"/>
+        <c:axId val="672101183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="672098687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Déformation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672101183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="672101183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>R/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672098687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2336,46 +1969,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3924,572 +3517,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10276937-A48B-44C6-BBB8-F3CEC8FF09B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4508,7 +3549,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4522,53 +3563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>971549</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D1C2ED-AFEF-4460-BC08-BD9808F87E42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4587,7 +3590,48 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE280F6-5070-4C7D-873C-26BB41E93858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4862,7 +3906,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,7 +3953,7 @@
         <f>1.79E+307</f>
         <v>1.7900000000000001E+307</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -4933,7 +3977,7 @@
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f>$A$2/(2*B3+$A$2)</f>
         <v>5.9642147117296212E-3</v>
       </c>
@@ -4958,7 +4002,7 @@
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f>-$A$2/(2*B4+$A$2)</f>
         <v>-5.9642147117296212E-3</v>
       </c>
@@ -4983,7 +4027,7 @@
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C7" si="3">$A$2/(2*B5+$A$2)</f>
         <v>1.4778325123152707E-2</v>
       </c>
@@ -5008,7 +4052,7 @@
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f>-$A$2/(2*B6+$A$2)</f>
         <v>-1.4778325123152707E-2</v>
       </c>
@@ -5033,7 +4077,7 @@
         <f>3.5/2/100</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="3"/>
         <v>8.4985835694050965E-3</v>
       </c>
@@ -5058,7 +4102,7 @@
         <f>3.5/2/100</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f>-$A$2/(2*B8+$A$2)</f>
         <v>-8.4985835694050965E-3</v>
       </c>
@@ -5083,7 +4127,7 @@
         <f>4.5/2/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f>$A$2/(2*B9+$A$2)</f>
         <v>6.6225165562913899E-3</v>
       </c>
@@ -5108,7 +4152,7 @@
         <f>4.5/2/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" ref="C10" si="4">-$A$2/(2*B10+$A$2)</f>
         <v>-6.6225165562913899E-3</v>
       </c>
@@ -5162,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E059FFB-2166-4A65-BDCB-8CECF040B828}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5209,7 +4253,7 @@
         <f>1.79E+307</f>
         <v>1.7900000000000001E+307</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -5233,7 +4277,7 @@
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f>$A$2/(2*B3+$A$2)</f>
         <v>5.9642147117296212E-3</v>
       </c>
@@ -5245,11 +4289,11 @@
         <v>1.191747572815534</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="0">D3-$D$2</f>
+        <f t="shared" ref="F3:F6" si="0">D3-$D$2</f>
         <v>7.8999999999999986</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G10" si="1">F3/$D$2</f>
+        <f t="shared" ref="G3:G6" si="1">F3/$D$2</f>
         <v>0.19174757281553392</v>
       </c>
     </row>
@@ -5258,7 +4302,7 @@
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f>-$A$2/(2*B4+$A$2)</f>
         <v>-5.9642147117296212E-3</v>
       </c>
@@ -5266,7 +4310,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E10" si="2">D4/$D$2</f>
+        <f t="shared" ref="E4:E6" si="2">D4/$D$2</f>
         <v>0.95388349514563098</v>
       </c>
       <c r="F4" s="1">
@@ -5283,7 +4327,7 @@
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5" si="3">$A$2/(2*B5+$A$2)</f>
         <v>1.4778325123152707E-2</v>
       </c>
@@ -5308,7 +4352,7 @@
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f>-$A$2/(2*B6+$A$2)</f>
         <v>-1.4778325123152707E-2</v>
       </c>
@@ -5333,7 +4377,7 @@
         <f>4.5/2/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f>$A$2/(2*B7+$A$2)</f>
         <v>6.6225165562913899E-3</v>
       </c>
@@ -5358,7 +4402,7 @@
         <f>4.5/2/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" ref="C8" si="4">-$A$2/(2*B8+$A$2)</f>
         <v>-6.6225165562913899E-3</v>
       </c>
@@ -5375,6 +4419,132 @@
       </c>
       <c r="G8" s="2">
         <f>F8/$D$2</f>
+        <v>-4.1262135922330162E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE737AE-35C0-43A9-B3E7-6A33C307FB29}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>5.9642147117296212E-3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.6842105263157857E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.19174757281553392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>-5.9642147117296212E-3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-2.6315789473684209E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-4.6116504854369064E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.4778325123152707E-2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.11578947368421048</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.27427184466019411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>-1.4778325123152707E-2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.10526315789473684</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.12621359223300976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8.4985835694050965E-3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.7368421052631504E-2</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>-8.4985835694050965E-3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-7.8947368421052627E-2</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6.6225165562913899E-3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.6842105263157857E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.10679611650485432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>-6.6225165562913899E-3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-3.6842105263157857E-2</v>
+      </c>
+      <c r="C10" s="3">
         <v>-4.1262135922330162E-2</v>
       </c>
     </row>

--- a/Data Sheet/Résultats Banc de Test.xlsx
+++ b/Data Sheet/Résultats Banc de Test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F8A1E10-9F39-4279-8B8B-07EB535609EE}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{D78F1A65-18EC-49E9-A8C7-19EEECE77B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AEFE9C1-DBFD-4E91-B864-69021651B513}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="12B" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="1" r:id="rId1"/>
     <sheet name="HB" sheetId="2" r:id="rId2"/>
     <sheet name="Synthèse" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -180,7 +180,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Caractéristique de déformation du crayon 12B</a:t>
+              <a:t>Caractéristique de déformation du crayon B</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -262,8 +262,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.8914236040684566E-2"/>
-                  <c:y val="8.5102209845507926E-2"/>
+                  <c:x val="0.1139748158182813"/>
+                  <c:y val="6.8123228574674413E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -298,7 +298,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'12B'!$C$2:$C$10</c:f>
+              <c:f>B!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -334,7 +334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'12B'!$G$2:$G$10</c:f>
+              <c:f>B!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -782,8 +782,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.4398775600620258E-2"/>
-                  <c:y val="0.12432481931066106"/>
+                  <c:x val="0.10213961106524089"/>
+                  <c:y val="5.3927095451996622E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1209,7 +1209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Caractéristiques de déformation des crayons 2H et HB </a:t>
+              <a:t>Caractéristiques de déformation des crayons HB et B </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1294,8 +1294,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.7725554129522459E-2"/>
-                  <c:y val="-2.7980687838981722E-2"/>
+                  <c:x val="9.5067698035543019E-2"/>
+                  <c:y val="-4.3784256191901634E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1405,7 +1405,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2H</c:v>
+            <c:v>B</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1446,8 +1446,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.6257125348318239E-2"/>
-                  <c:y val="4.1945002761589439E-2"/>
+                  <c:x val="9.0662411691930581E-2"/>
+                  <c:y val="4.3112727424731691E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1612,7 +1612,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Déformation</a:t>
+                  <a:t>Déformation (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1729,7 +1729,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>R/R0</a:t>
+                  <a:t>R/R0 (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1812,6 +1812,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3563,14 +3594,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3603,16 +3634,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3905,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,7 +4238,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE737AE-35C0-43A9-B3E7-6A33C307FB29}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
